--- a/data/respirometry/middle/final_rates/500_rates.xlsx
+++ b/data/respirometry/middle/final_rates/500_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z2">
-        <v>-0.2144720018397639</v>
+        <v>-0.1980364780318399</v>
       </c>
       <c r="AB2">
-        <v>-0.008578880073590556</v>
+        <v>-891.8105610122262</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.008578880073590556</v>
+        <v>-891.8105610122262</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z3">
-        <v>-0.1464103933999276</v>
+        <v>-0.1349408809612664</v>
       </c>
       <c r="AB3">
-        <v>-0.005856415735997103</v>
+        <v>-525.9921599661418</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.005856415735997103</v>
+        <v>-525.9921599661418</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z4">
-        <v>-0.2145148875312485</v>
+        <v>-0.2051903921641787</v>
       </c>
       <c r="AB4">
-        <v>-0.008580595501249941</v>
+        <v>-823.6561606816015</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.008580595501249941</v>
+        <v>-823.6561606816015</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z5">
-        <v>-0.2521009211418151</v>
+        <v>-0.2400119381765305</v>
       </c>
       <c r="AB5">
-        <v>-0.01008403684567261</v>
+        <v>-1152.421801444957</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.01008403684567261</v>
+        <v>-1152.421801444957</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z6">
-        <v>-0.2087633537410278</v>
+        <v>-0.1997284282732178</v>
       </c>
       <c r="AB6">
-        <v>-0.008350534149641112</v>
+        <v>-1242.754664811133</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.008350534149641112</v>
+        <v>-1242.754664811133</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z7">
-        <v>-0.1072914744233237</v>
+        <v>-0.1011027677634835</v>
       </c>
       <c r="AB7">
-        <v>-0.004291658976932948</v>
+        <v>-449.8198779180959</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.004291658976932948</v>
+        <v>-449.8198779180959</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,28 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-0.002925026920256255</v>
-      </c>
-      <c r="AB8">
-        <v>-0.0001170010768102502</v>
+        <v>-0.002924269337526327</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>-0.0001170010768102502</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1191,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z9">
-        <v>0.169731714326857</v>
+        <v>0.1567247502110327</v>
       </c>
       <c r="AB9">
-        <v>0.00678926857307428</v>
+        <v>705.7729404162113</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.00678926857307428</v>
+        <v>705.7729404162113</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1278,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z10">
-        <v>0.125277312693162</v>
+        <v>0.1154633257018739</v>
       </c>
       <c r="AB10">
-        <v>0.005011092507726481</v>
+        <v>450.0697168283318</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.005011092507726481</v>
+        <v>450.0697168283318</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1365,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z11">
-        <v>0.2147648913265871</v>
+        <v>0.2054295288385532</v>
       </c>
       <c r="AB11">
-        <v>0.008590595653063485</v>
+        <v>824.6160808465569</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.008590595653063485</v>
+        <v>824.6160808465569</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1452,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z12">
-        <v>0.2554358573709914</v>
+        <v>0.2431869543741488</v>
       </c>
       <c r="AB12">
-        <v>0.01021743429483966</v>
+        <v>1167.666700985683</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.01021743429483966</v>
+        <v>1167.666700985683</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1539,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z13">
-        <v>0.1884284634554434</v>
+        <v>0.180273597705175</v>
       </c>
       <c r="AB13">
-        <v>0.007537138538217737</v>
+        <v>1121.702385721089</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.007537138538217737</v>
+        <v>1121.702385721089</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1626,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z14">
-        <v>0.1119174658413718</v>
+        <v>0.1054619262010817</v>
       </c>
       <c r="AB14">
-        <v>0.004476698633654873</v>
+        <v>469.2143629515145</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.004476698633654873</v>
+        <v>469.2143629515145</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1713,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>8.411120301609361E-05</v>
-      </c>
-      <c r="AB15">
-        <v>3.364448120643744E-06</v>
+        <v>8.408941819272763E-05</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>3.364448120643744E-06</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
